--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/C3-Cd46.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/C3-Cd46.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.5236729999999999</v>
+        <v>1.433944</v>
       </c>
       <c r="H2">
-        <v>1.571019</v>
+        <v>4.301832</v>
       </c>
       <c r="I2">
-        <v>0.001411687926676083</v>
+        <v>0.003882998715548277</v>
       </c>
       <c r="J2">
-        <v>0.001412631582657676</v>
+        <v>0.003886188105009087</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.931427666666667</v>
+        <v>1.986769333333333</v>
       </c>
       <c r="N2">
-        <v>11.794283</v>
+        <v>5.960307999999999</v>
       </c>
       <c r="O2">
-        <v>0.3669735923346364</v>
+        <v>0.4188172894723593</v>
       </c>
       <c r="P2">
-        <v>0.4268080945104293</v>
+        <v>0.4376286247783243</v>
       </c>
       <c r="Q2">
-        <v>2.058782520486333</v>
+        <v>2.848915964917333</v>
       </c>
       <c r="R2">
-        <v>18.529042684377</v>
+        <v>25.640243684256</v>
       </c>
       <c r="S2">
-        <v>0.0005180521897077571</v>
+        <v>0.001626266997070582</v>
       </c>
       <c r="T2">
-        <v>0.0006029225940393745</v>
+        <v>0.001700707156025009</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.5236729999999999</v>
+        <v>1.433944</v>
       </c>
       <c r="H3">
-        <v>1.571019</v>
+        <v>4.301832</v>
       </c>
       <c r="I3">
-        <v>0.001411687926676083</v>
+        <v>0.003882998715548277</v>
       </c>
       <c r="J3">
-        <v>0.001412631582657676</v>
+        <v>0.003886188105009087</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>3.92893</v>
       </c>
       <c r="O3">
-        <v>0.122246817049525</v>
+        <v>0.2760769767479527</v>
       </c>
       <c r="P3">
-        <v>0.1421789799994507</v>
+        <v>0.2884770774849725</v>
       </c>
       <c r="Q3">
-        <v>0.6858248532966666</v>
+        <v>1.877955199973333</v>
       </c>
       <c r="R3">
-        <v>6.17242367967</v>
+        <v>16.90159679976</v>
       </c>
       <c r="S3">
-        <v>0.0001725743557033945</v>
+        <v>0.001072006546104752</v>
       </c>
       <c r="T3">
-        <v>0.000200846517537278</v>
+        <v>0.001121076187089885</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.5236729999999999</v>
+        <v>1.433944</v>
       </c>
       <c r="H4">
-        <v>1.571019</v>
+        <v>4.301832</v>
       </c>
       <c r="I4">
-        <v>0.001411687926676083</v>
+        <v>0.003882998715548277</v>
       </c>
       <c r="J4">
-        <v>0.001412631582657676</v>
+        <v>0.003886188105009087</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,28 +682,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.367377</v>
+        <v>0.3499836666666667</v>
       </c>
       <c r="N4">
-        <v>1.102131</v>
+        <v>1.049951</v>
       </c>
       <c r="O4">
-        <v>0.03429228994194604</v>
+        <v>0.07377766919071853</v>
       </c>
       <c r="P4">
-        <v>0.039883597164056</v>
+        <v>0.07709142081493547</v>
       </c>
       <c r="Q4">
-        <v>0.192385415721</v>
+        <v>0.5018569789146667</v>
       </c>
       <c r="R4">
-        <v>1.731468741489</v>
+        <v>4.516712810232001</v>
       </c>
       <c r="S4">
-        <v>4.841001168912091E-05</v>
+        <v>0.0002864785947037058</v>
       </c>
       <c r="T4">
-        <v>5.634082898394162E-05</v>
+        <v>0.0002995917625692522</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.5236729999999999</v>
+        <v>1.433944</v>
       </c>
       <c r="H5">
-        <v>1.571019</v>
+        <v>4.301832</v>
       </c>
       <c r="I5">
-        <v>0.001411687926676083</v>
+        <v>0.003882998715548277</v>
       </c>
       <c r="J5">
-        <v>0.001412631582657676</v>
+        <v>0.003886188105009087</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.5056325</v>
+        <v>0.6117275</v>
       </c>
       <c r="N5">
-        <v>9.011265</v>
+        <v>1.223455</v>
       </c>
       <c r="O5">
-        <v>0.4205719358094143</v>
+        <v>0.1289541010862372</v>
       </c>
       <c r="P5">
-        <v>0.3260970458126639</v>
+        <v>0.08983074853315715</v>
       </c>
       <c r="Q5">
-        <v>2.3594780881725</v>
+        <v>0.87718297826</v>
       </c>
       <c r="R5">
-        <v>14.156868529035</v>
+        <v>5.26309786956</v>
       </c>
       <c r="S5">
-        <v>0.0005937163240809388</v>
+        <v>0.0005007286088825416</v>
       </c>
       <c r="T5">
-        <v>0.000460654985926336</v>
+        <v>0.0003490991864136178</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.5236729999999999</v>
+        <v>1.433944</v>
       </c>
       <c r="H6">
-        <v>1.571019</v>
+        <v>4.301832</v>
       </c>
       <c r="I6">
-        <v>0.001411687926676083</v>
+        <v>0.003882998715548277</v>
       </c>
       <c r="J6">
-        <v>0.001412631582657676</v>
+        <v>0.003886188105009087</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.5990273333333334</v>
+        <v>0.4856376666666667</v>
       </c>
       <c r="N6">
-        <v>1.797082</v>
+        <v>1.456913</v>
       </c>
       <c r="O6">
-        <v>0.05591536486447825</v>
+        <v>0.1023739635027323</v>
       </c>
       <c r="P6">
-        <v>0.06503228251340003</v>
+        <v>0.1069721283886106</v>
       </c>
       <c r="Q6">
-        <v>0.3136944407286666</v>
+        <v>0.6963772182906668</v>
       </c>
       <c r="R6">
-        <v>2.823249966558</v>
+        <v>6.267394964616001</v>
       </c>
       <c r="S6">
-        <v>7.893504549487202E-05</v>
+        <v>0.0003975179687866958</v>
       </c>
       <c r="T6">
-        <v>9.186665617074537E-05</v>
+        <v>0.0004157138129113234</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>872.6930850000001</v>
       </c>
       <c r="I7">
-        <v>0.7841854820267643</v>
+        <v>0.7877262822264709</v>
       </c>
       <c r="J7">
-        <v>0.78470967813754</v>
+        <v>0.7883732991550308</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.931427666666667</v>
+        <v>1.986769333333333</v>
       </c>
       <c r="N7">
-        <v>11.794283</v>
+        <v>5.960307999999999</v>
       </c>
       <c r="O7">
-        <v>0.3669735923346364</v>
+        <v>0.4188172894723593</v>
       </c>
       <c r="P7">
-        <v>0.4268080945104293</v>
+        <v>0.4376286247783243</v>
       </c>
       <c r="Q7">
-        <v>1143.643246292562</v>
+        <v>577.9466195633534</v>
       </c>
       <c r="R7">
-        <v>10292.78921663306</v>
+        <v>5201.51957607018</v>
       </c>
       <c r="S7">
-        <v>0.2877753633960302</v>
+        <v>0.3299133863682293</v>
       </c>
       <c r="T7">
-        <v>0.3349204424697757</v>
+        <v>0.3450147227211666</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>872.6930850000001</v>
       </c>
       <c r="I8">
-        <v>0.7841854820267643</v>
+        <v>0.7877262822264709</v>
       </c>
       <c r="J8">
-        <v>0.78470967813754</v>
+        <v>0.7883732991550308</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>3.92893</v>
       </c>
       <c r="O8">
-        <v>0.122246817049525</v>
+        <v>0.2760769767479527</v>
       </c>
       <c r="P8">
-        <v>0.1421789799994507</v>
+        <v>0.2884770774849725</v>
       </c>
       <c r="Q8">
-        <v>380.9722269387835</v>
+        <v>380.9722269387834</v>
       </c>
       <c r="R8">
-        <v>3428.750042449051</v>
+        <v>3428.75004244905</v>
       </c>
       <c r="S8">
-        <v>0.09586417915421945</v>
+        <v>0.2174730905019887</v>
       </c>
       <c r="T8">
-        <v>0.1115692216332927</v>
+        <v>0.2274276253074293</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>872.6930850000001</v>
       </c>
       <c r="I9">
-        <v>0.7841854820267643</v>
+        <v>0.7877262822264709</v>
       </c>
       <c r="J9">
-        <v>0.78470967813754</v>
+        <v>0.7883732991550308</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,28 +992,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.367377</v>
+        <v>0.3499836666666667</v>
       </c>
       <c r="N9">
-        <v>1.102131</v>
+        <v>1.049951</v>
       </c>
       <c r="O9">
-        <v>0.03429228994194604</v>
+        <v>0.07377766919071853</v>
       </c>
       <c r="P9">
-        <v>0.039883597164056</v>
+        <v>0.07709142081493547</v>
       </c>
       <c r="Q9">
-        <v>106.869122496015</v>
+        <v>101.8094419209817</v>
       </c>
       <c r="R9">
-        <v>961.8221024641351</v>
+        <v>916.2849772888352</v>
       </c>
       <c r="S9">
-        <v>0.02689151591792651</v>
+        <v>0.05811660906293915</v>
       </c>
       <c r="T9">
-        <v>0.03129704469357369</v>
+        <v>0.0607768177644195</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>872.6930850000001</v>
       </c>
       <c r="I10">
-        <v>0.7841854820267643</v>
+        <v>0.7877262822264709</v>
       </c>
       <c r="J10">
-        <v>0.78470967813754</v>
+        <v>0.7883732991550308</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.5056325</v>
+        <v>0.6117275</v>
       </c>
       <c r="N10">
-        <v>9.011265</v>
+        <v>1.223455</v>
       </c>
       <c r="O10">
-        <v>0.4205719358094143</v>
+        <v>0.1289541010862372</v>
       </c>
       <c r="P10">
-        <v>0.3260970458126639</v>
+        <v>0.08983074853315715</v>
       </c>
       <c r="Q10">
-        <v>1310.678108767088</v>
+        <v>177.9501197181125</v>
       </c>
       <c r="R10">
-        <v>7864.068652602526</v>
+        <v>1067.700718308675</v>
       </c>
       <c r="S10">
-        <v>0.3298064062096349</v>
+        <v>0.1015805346265181</v>
       </c>
       <c r="T10">
-        <v>0.2558915078612581</v>
+        <v>0.07082016358665105</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,40 +1104,40 @@
         <v>872.6930850000001</v>
       </c>
       <c r="I11">
-        <v>0.7841854820267643</v>
+        <v>0.7877262822264709</v>
       </c>
       <c r="J11">
-        <v>0.78470967813754</v>
+        <v>0.7883732991550308</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.5990273333333334</v>
+        <v>0.4856376666666667</v>
       </c>
       <c r="N11">
-        <v>1.797082</v>
+        <v>1.456913</v>
       </c>
       <c r="O11">
-        <v>0.05591536486447825</v>
+        <v>0.1023739635027323</v>
       </c>
       <c r="P11">
-        <v>0.06503228251340003</v>
+        <v>0.1069721283886106</v>
       </c>
       <c r="Q11">
-        <v>174.2556705086634</v>
+        <v>141.2708778385117</v>
       </c>
       <c r="R11">
-        <v>1568.30103457797</v>
+        <v>1271.437900546605</v>
       </c>
       <c r="S11">
-        <v>0.04384801734895327</v>
+        <v>0.08064266166679575</v>
       </c>
       <c r="T11">
-        <v>0.0510314614796397</v>
+        <v>0.08433396977536448</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>38.68424166666667</v>
+        <v>54.70735966666666</v>
       </c>
       <c r="H12">
-        <v>116.052725</v>
+        <v>164.122079</v>
       </c>
       <c r="I12">
-        <v>0.1042827812651277</v>
+        <v>0.1481428893434501</v>
       </c>
       <c r="J12">
-        <v>0.1043524900644015</v>
+        <v>0.1482645698807303</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.931427666666667</v>
+        <v>1.986769333333333</v>
       </c>
       <c r="N12">
-        <v>11.794283</v>
+        <v>5.960307999999999</v>
       </c>
       <c r="O12">
-        <v>0.3669735923346364</v>
+        <v>0.4188172894723593</v>
       </c>
       <c r="P12">
-        <v>0.4268080945104293</v>
+        <v>0.4376286247783243</v>
       </c>
       <c r="Q12">
-        <v>152.0842979523528</v>
+        <v>108.6909044933702</v>
       </c>
       <c r="R12">
-        <v>1368.758681571175</v>
+        <v>978.2181404403318</v>
       </c>
       <c r="S12">
-        <v>0.03826902685951103</v>
+        <v>0.06204480336942744</v>
       </c>
       <c r="T12">
-        <v>0.04453848744180572</v>
+        <v>0.06488481982025375</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>38.68424166666667</v>
+        <v>54.70735966666666</v>
       </c>
       <c r="H13">
-        <v>116.052725</v>
+        <v>164.122079</v>
       </c>
       <c r="I13">
-        <v>0.1042827812651277</v>
+        <v>0.1481428893434501</v>
       </c>
       <c r="J13">
-        <v>0.1043524900644015</v>
+        <v>0.1482645698807303</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>3.92893</v>
       </c>
       <c r="O13">
-        <v>0.122246817049525</v>
+        <v>0.2760769767479527</v>
       </c>
       <c r="P13">
-        <v>0.1421789799994507</v>
+        <v>0.2884770774849725</v>
       </c>
       <c r="Q13">
-        <v>50.66255920380556</v>
+        <v>71.64712887171888</v>
       </c>
       <c r="R13">
-        <v>455.96303283425</v>
+        <v>644.8241598454699</v>
       </c>
       <c r="S13">
-        <v>0.0127482380827337</v>
+        <v>0.04089884101664622</v>
       </c>
       <c r="T13">
-        <v>0.01483673059775942</v>
+        <v>0.04277092981375955</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>38.68424166666667</v>
+        <v>54.70735966666666</v>
       </c>
       <c r="H14">
-        <v>116.052725</v>
+        <v>164.122079</v>
       </c>
       <c r="I14">
-        <v>0.1042827812651277</v>
+        <v>0.1481428893434501</v>
       </c>
       <c r="J14">
-        <v>0.1043524900644015</v>
+        <v>0.1482645698807303</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1302,28 +1302,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.367377</v>
+        <v>0.3499836666666667</v>
       </c>
       <c r="N14">
-        <v>1.102131</v>
+        <v>1.049951</v>
       </c>
       <c r="O14">
-        <v>0.03429228994194604</v>
+        <v>0.07377766919071853</v>
       </c>
       <c r="P14">
-        <v>0.039883597164056</v>
+        <v>0.07709142081493547</v>
       </c>
       <c r="Q14">
-        <v>14.211700650775</v>
+        <v>19.14668232979211</v>
       </c>
       <c r="R14">
-        <v>127.905305856975</v>
+        <v>172.320140968129</v>
       </c>
       <c r="S14">
-        <v>0.003576095371096297</v>
+        <v>0.01092963708293829</v>
       </c>
       <c r="T14">
-        <v>0.004161952676794747</v>
+        <v>0.01142992634862078</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>38.68424166666667</v>
+        <v>54.70735966666666</v>
       </c>
       <c r="H15">
-        <v>116.052725</v>
+        <v>164.122079</v>
       </c>
       <c r="I15">
-        <v>0.1042827812651277</v>
+        <v>0.1481428893434501</v>
       </c>
       <c r="J15">
-        <v>0.1043524900644015</v>
+        <v>0.1482645698807303</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.5056325</v>
+        <v>0.6117275</v>
       </c>
       <c r="N15">
-        <v>9.011265</v>
+        <v>1.223455</v>
       </c>
       <c r="O15">
-        <v>0.4205719358094143</v>
+        <v>0.1289541010862372</v>
       </c>
       <c r="P15">
-        <v>0.3260970458126639</v>
+        <v>0.08983074853315715</v>
       </c>
       <c r="Q15">
-        <v>174.2969764911875</v>
+        <v>33.46599636049083</v>
       </c>
       <c r="R15">
-        <v>1045.781858947125</v>
+        <v>200.795978162945</v>
       </c>
       <c r="S15">
-        <v>0.04385841118826447</v>
+        <v>0.01910363312760252</v>
       </c>
       <c r="T15">
-        <v>0.0340290387331967</v>
+        <v>0.01331871729333258</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>38.68424166666667</v>
+        <v>54.70735966666666</v>
       </c>
       <c r="H16">
-        <v>116.052725</v>
+        <v>164.122079</v>
       </c>
       <c r="I16">
-        <v>0.1042827812651277</v>
+        <v>0.1481428893434501</v>
       </c>
       <c r="J16">
-        <v>0.1043524900644015</v>
+        <v>0.1482645698807303</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.5990273333333334</v>
+        <v>0.4856376666666667</v>
       </c>
       <c r="N16">
-        <v>1.797082</v>
+        <v>1.456913</v>
       </c>
       <c r="O16">
-        <v>0.05591536486447825</v>
+        <v>0.1023739635027323</v>
       </c>
       <c r="P16">
-        <v>0.06503228251340003</v>
+        <v>0.1069721283886106</v>
       </c>
       <c r="Q16">
-        <v>23.17291812760556</v>
+        <v>26.56795449801411</v>
       </c>
       <c r="R16">
-        <v>208.55626314845</v>
+        <v>239.111590482127</v>
       </c>
       <c r="S16">
-        <v>0.005831009763522192</v>
+        <v>0.01516597474683568</v>
       </c>
       <c r="T16">
-        <v>0.00678628061484493</v>
+        <v>0.0158601766047636</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.7434085</v>
+        <v>0.909222</v>
       </c>
       <c r="H17">
-        <v>1.486817</v>
+        <v>1.818444</v>
       </c>
       <c r="I17">
-        <v>0.002004038405719556</v>
+        <v>0.002462096049879378</v>
       </c>
       <c r="J17">
-        <v>0.001336918682608127</v>
+        <v>0.001642745565709015</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.931427666666667</v>
+        <v>1.986769333333333</v>
       </c>
       <c r="N17">
-        <v>11.794283</v>
+        <v>5.960307999999999</v>
       </c>
       <c r="O17">
-        <v>0.3669735923346364</v>
+        <v>0.4188172894723593</v>
       </c>
       <c r="P17">
-        <v>0.4268080945104293</v>
+        <v>0.4376286247783243</v>
       </c>
       <c r="Q17">
-        <v>2.922656744535167</v>
+        <v>1.806414386792</v>
       </c>
       <c r="R17">
-        <v>17.535940467211</v>
+        <v>10.838486320752</v>
       </c>
       <c r="S17">
-        <v>0.0007354291729234831</v>
+        <v>0.001031168394031084</v>
       </c>
       <c r="T17">
-        <v>0.0005706077154393682</v>
+        <v>0.0007189124827819267</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.7434085</v>
+        <v>0.909222</v>
       </c>
       <c r="H18">
-        <v>1.486817</v>
+        <v>1.818444</v>
       </c>
       <c r="I18">
-        <v>0.002004038405719556</v>
+        <v>0.002462096049879378</v>
       </c>
       <c r="J18">
-        <v>0.001336918682608127</v>
+        <v>0.001642745565709015</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>3.92893</v>
       </c>
       <c r="O18">
-        <v>0.122246817049525</v>
+        <v>0.2760769767479527</v>
       </c>
       <c r="P18">
-        <v>0.1421789799994507</v>
+        <v>0.2884770774849725</v>
       </c>
       <c r="Q18">
-        <v>0.9735999859683335</v>
+        <v>1.19075653082</v>
       </c>
       <c r="R18">
-        <v>5.841599915810001</v>
+        <v>7.144539184919999</v>
       </c>
       <c r="S18">
-        <v>0.0002449873163442204</v>
+        <v>0.0006797280339137754</v>
       </c>
       <c r="T18">
-        <v>0.0001900817346354329</v>
+        <v>0.0004738944398471346</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.7434085</v>
+        <v>0.909222</v>
       </c>
       <c r="H19">
-        <v>1.486817</v>
+        <v>1.818444</v>
       </c>
       <c r="I19">
-        <v>0.002004038405719556</v>
+        <v>0.002462096049879378</v>
       </c>
       <c r="J19">
-        <v>0.001336918682608127</v>
+        <v>0.001642745565709015</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -1612,28 +1612,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.367377</v>
+        <v>0.3499836666666667</v>
       </c>
       <c r="N19">
-        <v>1.102131</v>
+        <v>1.049951</v>
       </c>
       <c r="O19">
-        <v>0.03429228994194604</v>
+        <v>0.07377766919071853</v>
       </c>
       <c r="P19">
-        <v>0.039883597164056</v>
+        <v>0.07709142081493547</v>
       </c>
       <c r="Q19">
-        <v>0.2731111845045</v>
+        <v>0.318212849374</v>
       </c>
       <c r="R19">
-        <v>1.638667107027</v>
+        <v>1.909277096244</v>
       </c>
       <c r="S19">
-        <v>6.87230660637303E-05</v>
+        <v>0.0001816477078837756</v>
       </c>
       <c r="T19">
-        <v>5.3321126178243E-05</v>
+        <v>0.0001266415896979429</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.7434085</v>
+        <v>0.909222</v>
       </c>
       <c r="H20">
-        <v>1.486817</v>
+        <v>1.818444</v>
       </c>
       <c r="I20">
-        <v>0.002004038405719556</v>
+        <v>0.002462096049879378</v>
       </c>
       <c r="J20">
-        <v>0.001336918682608127</v>
+        <v>0.001642745565709015</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>4.5056325</v>
+        <v>0.6117275</v>
       </c>
       <c r="N20">
-        <v>9.011265</v>
+        <v>1.223455</v>
       </c>
       <c r="O20">
-        <v>0.4205719358094143</v>
+        <v>0.1289541010862372</v>
       </c>
       <c r="P20">
-        <v>0.3260970458126639</v>
+        <v>0.08983074853315715</v>
       </c>
       <c r="Q20">
-        <v>3.34952549837625</v>
+        <v>0.5561961010049999</v>
       </c>
       <c r="R20">
-        <v>13.398101993505</v>
+        <v>2.22478440402</v>
       </c>
       <c r="S20">
-        <v>0.0008428423117298861</v>
+        <v>0.0003174973829001706</v>
       </c>
       <c r="T20">
-        <v>0.0004359652328902688</v>
+        <v>0.0001475690638171655</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.7434085</v>
+        <v>0.909222</v>
       </c>
       <c r="H21">
-        <v>1.486817</v>
+        <v>1.818444</v>
       </c>
       <c r="I21">
-        <v>0.002004038405719556</v>
+        <v>0.002462096049879378</v>
       </c>
       <c r="J21">
-        <v>0.001336918682608127</v>
+        <v>0.001642745565709015</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>0.5990273333333334</v>
+        <v>0.4856376666666667</v>
       </c>
       <c r="N21">
-        <v>1.797082</v>
+        <v>1.456913</v>
       </c>
       <c r="O21">
-        <v>0.05591536486447825</v>
+        <v>0.1023739635027323</v>
       </c>
       <c r="P21">
-        <v>0.06503228251340003</v>
+        <v>0.1069721283886106</v>
       </c>
       <c r="Q21">
-        <v>0.4453220113323333</v>
+        <v>0.441552450562</v>
       </c>
       <c r="R21">
-        <v>2.671932067994</v>
+        <v>2.649314703372</v>
       </c>
       <c r="S21">
-        <v>0.0001120565386582363</v>
+        <v>0.0002520545311505729</v>
       </c>
       <c r="T21">
-        <v>8.694287346481433E-05</v>
+        <v>0.0001757279895648455</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>40.106198</v>
+        <v>21.33956566666667</v>
       </c>
       <c r="H22">
-        <v>120.318594</v>
+        <v>64.018697</v>
       </c>
       <c r="I22">
-        <v>0.1081160103757125</v>
+        <v>0.05778573366465133</v>
       </c>
       <c r="J22">
-        <v>0.1081882815327926</v>
+        <v>0.05783319729352075</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>3.931427666666667</v>
+        <v>1.986769333333333</v>
       </c>
       <c r="N22">
-        <v>11.794283</v>
+        <v>5.960307999999999</v>
       </c>
       <c r="O22">
-        <v>0.3669735923346364</v>
+        <v>0.4188172894723593</v>
       </c>
       <c r="P22">
-        <v>0.4268080945104293</v>
+        <v>0.4376286247783243</v>
       </c>
       <c r="Q22">
-        <v>157.6746164220113</v>
+        <v>42.39679465318622</v>
       </c>
       <c r="R22">
-        <v>1419.071547798102</v>
+        <v>381.571151878676</v>
       </c>
       <c r="S22">
-        <v>0.03967572071646402</v>
+        <v>0.02420166434360093</v>
       </c>
       <c r="T22">
-        <v>0.04617563428936909</v>
+        <v>0.02530946259809699</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>40.106198</v>
+        <v>21.33956566666667</v>
       </c>
       <c r="H23">
-        <v>120.318594</v>
+        <v>64.018697</v>
       </c>
       <c r="I23">
-        <v>0.1081160103757125</v>
+        <v>0.05778573366465133</v>
       </c>
       <c r="J23">
-        <v>0.1081882815327926</v>
+        <v>0.05783319729352075</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>3.92893</v>
       </c>
       <c r="O23">
-        <v>0.122246817049525</v>
+        <v>0.2760769767479527</v>
       </c>
       <c r="P23">
-        <v>0.1421789799994507</v>
+        <v>0.2884770774849725</v>
       </c>
       <c r="Q23">
-        <v>52.52481483604667</v>
+        <v>27.94721991157889</v>
       </c>
       <c r="R23">
-        <v>472.7233335244201</v>
+        <v>251.52497920421</v>
       </c>
       <c r="S23">
-        <v>0.01321683814052427</v>
+        <v>0.01595331064929933</v>
       </c>
       <c r="T23">
-        <v>0.01538209951622586</v>
+        <v>0.01668355173684669</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>40.106198</v>
+        <v>21.33956566666667</v>
       </c>
       <c r="H24">
-        <v>120.318594</v>
+        <v>64.018697</v>
       </c>
       <c r="I24">
-        <v>0.1081160103757125</v>
+        <v>0.05778573366465133</v>
       </c>
       <c r="J24">
-        <v>0.1081882815327926</v>
+        <v>0.05783319729352075</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -1922,28 +1922,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>0.367377</v>
+        <v>0.3499836666666667</v>
       </c>
       <c r="N24">
-        <v>1.102131</v>
+        <v>1.049951</v>
       </c>
       <c r="O24">
-        <v>0.03429228994194604</v>
+        <v>0.07377766919071853</v>
       </c>
       <c r="P24">
-        <v>0.039883597164056</v>
+        <v>0.07709142081493547</v>
       </c>
       <c r="Q24">
-        <v>14.734094702646</v>
+        <v>7.468499437094112</v>
       </c>
       <c r="R24">
-        <v>132.606852323814</v>
+        <v>67.216494933847</v>
       </c>
       <c r="S24">
-        <v>0.003707545575170378</v>
+        <v>0.004263296742253612</v>
       </c>
       <c r="T24">
-        <v>0.004314937838525382</v>
+        <v>0.004458443349627995</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>40.106198</v>
+        <v>21.33956566666667</v>
       </c>
       <c r="H25">
-        <v>120.318594</v>
+        <v>64.018697</v>
       </c>
       <c r="I25">
-        <v>0.1081160103757125</v>
+        <v>0.05778573366465133</v>
       </c>
       <c r="J25">
-        <v>0.1081882815327926</v>
+        <v>0.05783319729352075</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>4.5056325</v>
+        <v>0.6117275</v>
       </c>
       <c r="N25">
-        <v>9.011265</v>
+        <v>1.223455</v>
       </c>
       <c r="O25">
-        <v>0.4205719358094143</v>
+        <v>0.1289541010862372</v>
       </c>
       <c r="P25">
-        <v>0.3260970458126639</v>
+        <v>0.08983074853315715</v>
       </c>
       <c r="Q25">
-        <v>180.703789160235</v>
+        <v>13.05399915635583</v>
       </c>
       <c r="R25">
-        <v>1084.22273496141</v>
+        <v>78.323994938135</v>
       </c>
       <c r="S25">
-        <v>0.04547055977570411</v>
+        <v>0.007451707340333825</v>
       </c>
       <c r="T25">
-        <v>0.03527987899939247</v>
+        <v>0.005195199402942726</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,46 +2028,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>40.106198</v>
+        <v>21.33956566666667</v>
       </c>
       <c r="H26">
-        <v>120.318594</v>
+        <v>64.018697</v>
       </c>
       <c r="I26">
-        <v>0.1081160103757125</v>
+        <v>0.05778573366465133</v>
       </c>
       <c r="J26">
-        <v>0.1081882815327926</v>
+        <v>0.05783319729352075</v>
       </c>
       <c r="K26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M26">
-        <v>0.5990273333333334</v>
+        <v>0.4856376666666667</v>
       </c>
       <c r="N26">
-        <v>1.797082</v>
+        <v>1.456913</v>
       </c>
       <c r="O26">
-        <v>0.05591536486447825</v>
+        <v>0.1023739635027323</v>
       </c>
       <c r="P26">
-        <v>0.06503228251340003</v>
+        <v>0.1069721283886106</v>
       </c>
       <c r="Q26">
-        <v>24.02470883807867</v>
+        <v>10.36329687804011</v>
       </c>
       <c r="R26">
-        <v>216.222379542708</v>
+        <v>93.26967190236101</v>
       </c>
       <c r="S26">
-        <v>0.006045346167849679</v>
+        <v>0.005915754589163625</v>
       </c>
       <c r="T26">
-        <v>0.00703573088927983</v>
+        <v>0.006186540206006348</v>
       </c>
     </row>
   </sheetData>
